--- a/downloads/URL_processed.xlsx
+++ b/downloads/URL_processed.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:36+10:00</t>
+          <t>2025-09-19T10:10:37+10:00</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1135.88</v>
+        <v>606.3099999999999</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:37+10:00</t>
+          <t>2025-09-19T10:10:38+10:00</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>639.28</v>
+        <v>562.8099999999999</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:38+10:00</t>
+          <t>2025-09-19T10:10:38+10:00</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>708.36</v>
+        <v>14.28</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:39+10:00</t>
+          <t>2025-09-19T10:10:39+10:00</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>987.25</v>
+        <v>972.15</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:39+10:00</t>
+          <t>2025-09-19T10:10:39+10:00</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>512.03</v>
+        <v>441.42</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:40+10:00</t>
+          <t>2025-09-19T10:10:40+10:00</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>717.99</v>
+        <v>460.49</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:41+10:00</t>
+          <t>2025-09-19T10:10:40+10:00</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>345.08</v>
+        <v>302.22</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:41+10:00</t>
+          <t>2025-09-19T10:10:40+10:00</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>261.75</v>
+        <v>24.92</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:42+10:00</t>
+          <t>2025-09-19T10:10:41+10:00</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>520.74</v>
+        <v>470.16</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:42+10:00</t>
+          <t>2025-09-19T10:10:41+10:00</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>512.45</v>
+        <v>369.34</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:43+10:00</t>
+          <t>2025-09-19T10:10:42+10:00</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>484.75</v>
+        <v>15.26</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:44+10:00</t>
+          <t>2025-09-19T10:10:42+10:00</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>743.98</v>
+        <v>13.85</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:45+10:00</t>
+          <t>2025-09-19T10:10:42+10:00</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>922.98</v>
+        <v>459.13</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:45+10:00</t>
+          <t>2025-09-19T10:10:43+10:00</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>513.29</v>
+        <v>537.55</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:46+10:00</t>
+          <t>2025-09-19T10:10:43+10:00</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>718.26</v>
+        <v>462.88</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:47+10:00</t>
+          <t>2025-09-19T10:10:44+10:00</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>922.65</v>
+        <v>426.51</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:48+10:00</t>
+          <t>2025-09-19T10:10:45+10:00</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>511.86</v>
+        <v>445.24</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:48+10:00</t>
+          <t>2025-09-19T10:10:45+10:00</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>512.21</v>
+        <v>431.62</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:49+10:00</t>
+          <t>2025-09-19T10:10:45+10:00</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>515.8099999999999</v>
+        <v>13.78</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:50+10:00</t>
+          <t>2025-09-19T10:10:46+10:00</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>508.73</v>
+        <v>449.02</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:50+10:00</t>
+          <t>2025-09-19T10:10:46+10:00</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>720.98</v>
+        <v>26.4</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:51+10:00</t>
+          <t>2025-09-19T10:10:47+10:00</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>512.22</v>
+        <v>574.6</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:52+10:00</t>
+          <t>2025-09-19T10:10:47+10:00</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>509.5</v>
+        <v>315.69</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:52+10:00</t>
+          <t>2025-09-19T10:10:47+10:00</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>410.49</v>
+        <v>326.39</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:53+10:00</t>
+          <t>2025-09-19T10:10:47+10:00</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410</v>
+        <v>12.78</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:53+10:00</t>
+          <t>2025-09-19T10:10:48+10:00</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>410.58</v>
+        <v>300.25</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:54+10:00</t>
+          <t>2025-09-19T10:10:48+10:00</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>715.91</v>
+        <v>411.93</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:54+10:00</t>
+          <t>2025-09-19T10:10:49+10:00</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>42.23</v>
+        <v>395.24</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:54+10:00</t>
+          <t>2025-09-19T10:10:49+10:00</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>61.98</v>
+        <v>14.76</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:55+10:00</t>
+          <t>2025-09-19T10:10:49+10:00</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.63</v>
+        <v>12.72</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:55+10:00</t>
+          <t>2025-09-19T10:10:50+10:00</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>513.53</v>
+        <v>445.76</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:56+10:00</t>
+          <t>2025-09-19T10:10:50+10:00</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>408.41</v>
+        <v>339.62</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:56+10:00</t>
+          <t>2025-09-19T10:10:51+10:00</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>429.26</v>
+        <v>299.88</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:56+10:00</t>
+          <t>2025-09-19T10:10:51+10:00</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>40.85</v>
+        <v>13.03</v>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:57+10:00</t>
+          <t>2025-09-19T10:10:51+10:00</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>452.43</v>
+        <v>326.47</v>
       </c>
       <c r="G36" t="inlineStr"/>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:57+10:00</t>
+          <t>2025-09-19T10:10:51+10:00</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>410.75</v>
+        <v>338.47</v>
       </c>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:58+10:00</t>
+          <t>2025-09-19T10:10:52+10:00</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>613.63</v>
+        <v>375.79</v>
       </c>
       <c r="G38" t="inlineStr"/>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:58+10:00</t>
+          <t>2025-09-19T10:10:53+10:00</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>43.63</v>
+        <v>460.8</v>
       </c>
       <c r="G39" t="inlineStr"/>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:58+10:00</t>
+          <t>2025-09-19T10:10:53+10:00</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57.84</v>
+        <v>395.7</v>
       </c>
       <c r="G40" t="inlineStr"/>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:59+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>47.46</v>
+        <v>489.99</v>
       </c>
       <c r="G41" t="inlineStr"/>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:59+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>68.37</v>
+        <v>13.22</v>
       </c>
       <c r="G42" t="inlineStr"/>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-18T13:48:59+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>502.12</v>
+        <v>12.88</v>
       </c>
       <c r="G43" t="inlineStr"/>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:00+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>511.73</v>
+        <v>14.54</v>
       </c>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:01+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>513.7</v>
+        <v>19.27</v>
       </c>
       <c r="G45" t="inlineStr"/>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:01+10:00</t>
+          <t>2025-09-19T10:10:54+10:00</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>516.96</v>
+        <v>234.3</v>
       </c>
       <c r="G46" t="inlineStr"/>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:02+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>712.84</v>
+        <v>13.48</v>
       </c>
       <c r="G47" t="inlineStr"/>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:03+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>614.83</v>
+        <v>17.39</v>
       </c>
       <c r="G48" t="inlineStr"/>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:03+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>512.9400000000001</v>
+        <v>13.84</v>
       </c>
       <c r="G49" t="inlineStr"/>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:04+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>412.91</v>
+        <v>18.79</v>
       </c>
       <c r="G50" t="inlineStr"/>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:05+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>611.65</v>
+        <v>17.18</v>
       </c>
       <c r="G51" t="inlineStr"/>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:05+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>511.82</v>
+        <v>14.27</v>
       </c>
       <c r="G52" t="inlineStr"/>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:06+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>510.42</v>
+        <v>13.8</v>
       </c>
       <c r="G53" t="inlineStr"/>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:06+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>37.82</v>
+        <v>14.55</v>
       </c>
       <c r="G54" t="inlineStr"/>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:07+10:00</t>
+          <t>2025-09-19T10:10:55+10:00</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>579.27</v>
+        <v>13.66</v>
       </c>
       <c r="G55" t="inlineStr"/>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:07+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>40.24</v>
+        <v>14.34</v>
       </c>
       <c r="G56" t="inlineStr"/>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:08+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>678.15</v>
+        <v>13.95</v>
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:08+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>716.88</v>
+        <v>24.02</v>
       </c>
       <c r="G58" t="inlineStr"/>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:09+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>38.38</v>
+        <v>12.95</v>
       </c>
       <c r="G59" t="inlineStr"/>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:09+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>679.6799999999999</v>
+        <v>14.12</v>
       </c>
       <c r="G60" t="inlineStr"/>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:10+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>582.71</v>
+        <v>14.51</v>
       </c>
       <c r="G61" t="inlineStr"/>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:10+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>47.82</v>
+        <v>15.5</v>
       </c>
       <c r="G62" t="inlineStr"/>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:11+10:00</t>
+          <t>2025-09-19T10:10:56+10:00</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>600.01</v>
+        <v>13.46</v>
       </c>
       <c r="G63" t="inlineStr"/>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:11+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>511.84</v>
+        <v>14.54</v>
       </c>
       <c r="G64" t="inlineStr"/>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:12+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>307.49</v>
+        <v>19.15</v>
       </c>
       <c r="G65" t="inlineStr"/>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:12+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>412.41</v>
+        <v>22.16</v>
       </c>
       <c r="G66" t="inlineStr"/>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:13+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>821.45</v>
+        <v>14.18</v>
       </c>
       <c r="G67" t="inlineStr"/>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:14+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>514.45</v>
+        <v>24.25</v>
       </c>
       <c r="G68" t="inlineStr"/>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:15+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>508.28</v>
+        <v>10.82</v>
       </c>
       <c r="G69" t="inlineStr"/>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:15+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>716.55</v>
+        <v>13.59</v>
       </c>
       <c r="G70" t="inlineStr"/>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:16+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>614.54</v>
+        <v>13.19</v>
       </c>
       <c r="G71" t="inlineStr"/>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:17+10:00</t>
+          <t>2025-09-19T10:10:57+10:00</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>389.29</v>
+        <v>12.61</v>
       </c>
       <c r="G72" t="inlineStr"/>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:17+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>638.5599999999999</v>
+        <v>14.15</v>
       </c>
       <c r="G73" t="inlineStr"/>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:18+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>816.63</v>
+        <v>17.68</v>
       </c>
       <c r="G74" t="inlineStr"/>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:19+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>615.39</v>
+        <v>12.98</v>
       </c>
       <c r="G75" t="inlineStr"/>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:20+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>614.39</v>
+        <v>13.74</v>
       </c>
       <c r="G76" t="inlineStr"/>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:20+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>608.71</v>
+        <v>14.09</v>
       </c>
       <c r="G77" t="inlineStr"/>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:21+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>819.45</v>
+        <v>14.38</v>
       </c>
       <c r="G78" t="inlineStr"/>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:22+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>518.66</v>
+        <v>13.4</v>
       </c>
       <c r="G79" t="inlineStr"/>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:22+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>334.13</v>
+        <v>23.87</v>
       </c>
       <c r="G80" t="inlineStr"/>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:23+10:00</t>
+          <t>2025-09-19T10:10:58+10:00</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>378.21</v>
+        <v>11.89</v>
       </c>
       <c r="G81" t="inlineStr"/>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:23+10:00</t>
+          <t>2025-09-19T10:10:59+10:00</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>410.06</v>
+        <v>322.74</v>
       </c>
       <c r="G82" t="inlineStr"/>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:24+10:00</t>
+          <t>2025-09-19T10:10:59+10:00</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>410.08</v>
+        <v>278.61</v>
       </c>
       <c r="G83" t="inlineStr"/>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:25+10:00</t>
+          <t>2025-09-19T10:11:01+10:00</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1435.51</v>
+        <v>1585.85</v>
       </c>
       <c r="G84" t="inlineStr"/>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:26+10:00</t>
+          <t>2025-09-19T10:11:02+10:00</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>93.48999999999999</v>
+        <v>1227.12</v>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:27+10:00</t>
+          <t>2025-09-19T10:11:04+10:00</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1035.85</v>
+        <v>1185.18</v>
       </c>
       <c r="G86" t="inlineStr"/>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:27+10:00</t>
+          <t>2025-09-19T10:11:04+10:00</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>614.48</v>
+        <v>567.9400000000001</v>
       </c>
       <c r="G87" t="inlineStr"/>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:28+10:00</t>
+          <t>2025-09-19T10:11:05+10:00</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>820.1900000000001</v>
+        <v>1075.66</v>
       </c>
       <c r="G88" t="inlineStr"/>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:29+10:00</t>
+          <t>2025-09-19T10:11:06+10:00</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>926.27</v>
+        <v>825.74</v>
       </c>
       <c r="G89" t="inlineStr"/>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:30+10:00</t>
+          <t>2025-09-19T10:11:07+10:00</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>940.04</v>
+        <v>905.39</v>
       </c>
       <c r="G90" t="inlineStr"/>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:31+10:00</t>
+          <t>2025-09-19T10:11:08+10:00</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>795.12</v>
+        <v>981.65</v>
       </c>
       <c r="G91" t="inlineStr"/>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:32+10:00</t>
+          <t>2025-09-19T10:11:09+10:00</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>719.26</v>
+        <v>916.26</v>
       </c>
       <c r="G92" t="inlineStr"/>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:33+10:00</t>
+          <t>2025-09-19T10:11:10+10:00</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>807.42</v>
+        <v>675.35</v>
       </c>
       <c r="G93" t="inlineStr"/>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:33+10:00</t>
+          <t>2025-09-19T10:11:11+10:00</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>46.58</v>
+        <v>641.02</v>
       </c>
       <c r="G94" t="inlineStr"/>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:34+10:00</t>
+          <t>2025-09-19T10:11:12+10:00</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>916.95</v>
+        <v>844.65</v>
       </c>
       <c r="G95" t="inlineStr"/>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:35+10:00</t>
+          <t>2025-09-19T10:11:13+10:00</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>685.12</v>
+        <v>927.72</v>
       </c>
       <c r="G96" t="inlineStr"/>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:36+10:00</t>
+          <t>2025-09-19T10:11:14+10:00</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>924.05</v>
+        <v>1199.85</v>
       </c>
       <c r="G97" t="inlineStr"/>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:36+10:00</t>
+          <t>2025-09-19T10:11:15+10:00</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>42.46</v>
+        <v>711.74</v>
       </c>
       <c r="G98" t="inlineStr"/>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:36+10:00</t>
+          <t>2025-09-19T10:11:16+10:00</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>44.59</v>
+        <v>655.7</v>
       </c>
       <c r="G99" t="inlineStr"/>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:37+10:00</t>
+          <t>2025-09-19T10:11:17+10:00</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>942.25</v>
+        <v>678.85</v>
       </c>
       <c r="G100" t="inlineStr"/>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:38+10:00</t>
+          <t>2025-09-19T10:11:17+10:00</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>863.21</v>
+        <v>639.77</v>
       </c>
       <c r="G101" t="inlineStr"/>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:42+10:00</t>
+          <t>2025-09-19T10:11:19+10:00</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>3228.36</v>
+        <v>1364.49</v>
       </c>
       <c r="G102" t="inlineStr"/>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:42+10:00</t>
+          <t>2025-09-19T10:11:20+10:00</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>45.75</v>
+        <v>749.95</v>
       </c>
       <c r="G103" t="inlineStr"/>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:43+10:00</t>
+          <t>2025-09-19T10:11:21+10:00</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1394.53</v>
+        <v>1160.53</v>
       </c>
       <c r="G104" t="inlineStr"/>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:44+10:00</t>
+          <t>2025-09-19T10:11:22+10:00</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>894.46</v>
+        <v>620.4</v>
       </c>
       <c r="G105" t="inlineStr"/>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:45+10:00</t>
+          <t>2025-09-19T10:11:22+10:00</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1047.47</v>
+        <v>647.3200000000001</v>
       </c>
       <c r="G106" t="inlineStr"/>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:46+10:00</t>
+          <t>2025-09-19T10:11:23+10:00</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>390.84</v>
+        <v>737.77</v>
       </c>
       <c r="G107" t="inlineStr"/>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:47+10:00</t>
+          <t>2025-09-19T10:11:24+10:00</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>740.67</v>
+        <v>949.48</v>
       </c>
       <c r="G108" t="inlineStr"/>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:48+10:00</t>
+          <t>2025-09-19T10:11:25+10:00</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1023.13</v>
+        <v>844.3099999999999</v>
       </c>
       <c r="G109" t="inlineStr"/>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:49+10:00</t>
+          <t>2025-09-19T10:11:26+10:00</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1125.85</v>
+        <v>1141.29</v>
       </c>
       <c r="G110" t="inlineStr"/>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:50+10:00</t>
+          <t>2025-09-19T10:11:27+10:00</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>930.25</v>
+        <v>728.85</v>
       </c>
       <c r="G111" t="inlineStr"/>
     </row>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:50+10:00</t>
+          <t>2025-09-19T10:11:28+10:00</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3463,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>151.62</v>
+        <v>158.66</v>
       </c>
       <c r="G112" t="inlineStr"/>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:51+10:00</t>
+          <t>2025-09-19T10:11:29+10:00</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>657.62</v>
+        <v>887.24</v>
       </c>
       <c r="G113" t="inlineStr"/>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:51+10:00</t>
+          <t>2025-09-19T10:11:30+10:00</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>42.9</v>
+        <v>881.02</v>
       </c>
       <c r="G114" t="inlineStr"/>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:53+10:00</t>
+          <t>2025-09-19T10:11:31+10:00</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1089.04</v>
+        <v>930.8200000000001</v>
       </c>
       <c r="G115" t="inlineStr"/>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:53+10:00</t>
+          <t>2025-09-19T10:11:32+10:00</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>713.42</v>
+        <v>983.25</v>
       </c>
       <c r="G116" t="inlineStr"/>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:54+10:00</t>
+          <t>2025-09-19T10:11:32+10:00</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1027.14</v>
+        <v>574.52</v>
       </c>
       <c r="G117" t="inlineStr"/>
     </row>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:55+10:00</t>
+          <t>2025-09-19T10:11:33+10:00</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>156.76</v>
+        <v>731.53</v>
       </c>
       <c r="G118" t="inlineStr"/>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:56+10:00</t>
+          <t>2025-09-19T10:11:34+10:00</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>850.95</v>
+        <v>869.54</v>
       </c>
       <c r="G119" t="inlineStr"/>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:56+10:00</t>
+          <t>2025-09-19T10:11:35+10:00</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>631.3</v>
+        <v>580.75</v>
       </c>
       <c r="G120" t="inlineStr"/>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-09-18T13:49:58+10:00</t>
+          <t>2025-09-19T10:11:36+10:00</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1876.47</v>
+        <v>1311.58</v>
       </c>
       <c r="G121" t="inlineStr"/>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:00+10:00</t>
+          <t>2025-09-19T10:11:37+10:00</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1196.35</v>
+        <v>772.4400000000001</v>
       </c>
       <c r="G122" t="inlineStr"/>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:00+10:00</t>
+          <t>2025-09-19T10:11:38+10:00</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>659.11</v>
+        <v>691.5</v>
       </c>
       <c r="G123" t="inlineStr"/>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:02+10:00</t>
+          <t>2025-09-19T10:11:39+10:00</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1258.99</v>
+        <v>1112.66</v>
       </c>
       <c r="G124" t="inlineStr"/>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:03+10:00</t>
+          <t>2025-09-19T10:11:40+10:00</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1039.38</v>
+        <v>1075.43</v>
       </c>
       <c r="G125" t="inlineStr"/>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:04+10:00</t>
+          <t>2025-09-19T10:11:41+10:00</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>735.67</v>
+        <v>644.79</v>
       </c>
       <c r="G126" t="inlineStr"/>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:04+10:00</t>
+          <t>2025-09-19T10:11:42+10:00</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>101.48</v>
+        <v>954.71</v>
       </c>
       <c r="G127" t="inlineStr"/>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:05+10:00</t>
+          <t>2025-09-19T10:11:43+10:00</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>802.3099999999999</v>
+        <v>702.11</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:05+10:00</t>
+          <t>2025-09-19T10:11:43+10:00</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>52.64</v>
+        <v>17.04</v>
       </c>
       <c r="G129" t="inlineStr"/>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:06+10:00</t>
+          <t>2025-09-19T10:11:44+10:00</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>894.72</v>
+        <v>1016.71</v>
       </c>
       <c r="G130" t="inlineStr"/>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:07+10:00</t>
+          <t>2025-09-19T10:11:45+10:00</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>810.28</v>
+        <v>777.14</v>
       </c>
       <c r="G131" t="inlineStr"/>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:07+10:00</t>
+          <t>2025-09-19T10:11:46+10:00</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>43.57</v>
+        <v>648.83</v>
       </c>
       <c r="G132" t="inlineStr"/>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:08+10:00</t>
+          <t>2025-09-19T10:11:46+10:00</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>878.53</v>
+        <v>634.16</v>
       </c>
       <c r="G133" t="inlineStr"/>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:11+10:00</t>
+          <t>2025-09-19T10:11:47+10:00</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2869.12</v>
+        <v>849.27</v>
       </c>
       <c r="G134" t="inlineStr"/>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:13+10:00</t>
+          <t>2025-09-19T10:11:49+10:00</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1436.8</v>
+        <v>1094.3</v>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:13+10:00</t>
+          <t>2025-09-19T10:11:50+10:00</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>45.71</v>
+        <v>1072.37</v>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:13+10:00</t>
+          <t>2025-09-19T10:11:51+10:00</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>55.41</v>
+        <v>644.79</v>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:14+10:00</t>
+          <t>2025-09-19T10:11:52+10:00</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>823.14</v>
+        <v>874.75</v>
       </c>
       <c r="G138" t="inlineStr"/>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:15+10:00</t>
+          <t>2025-09-19T10:11:52+10:00</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1122.53</v>
+        <v>860.67</v>
       </c>
       <c r="G139" t="inlineStr"/>
     </row>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:16+10:00</t>
+          <t>2025-09-19T10:11:53+10:00</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>756.46</v>
+        <v>739.1</v>
       </c>
       <c r="G140" t="inlineStr"/>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:17+10:00</t>
+          <t>2025-09-19T10:11:55+10:00</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1394.28</v>
+        <v>1312.21</v>
       </c>
       <c r="G141" t="inlineStr"/>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:18+10:00</t>
+          <t>2025-09-19T10:11:56+10:00</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>822.28</v>
+        <v>729.96</v>
       </c>
       <c r="G142" t="inlineStr"/>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:19+10:00</t>
+          <t>2025-09-19T10:11:56+10:00</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>718.79</v>
+        <v>808.51</v>
       </c>
       <c r="G143" t="inlineStr"/>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:20+10:00</t>
+          <t>2025-09-19T10:11:57+10:00</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>815.9299999999999</v>
+        <v>746.33</v>
       </c>
       <c r="G144" t="inlineStr"/>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:22+10:00</t>
+          <t>2025-09-19T10:11:58+10:00</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1433.39</v>
+        <v>756.64</v>
       </c>
       <c r="G145" t="inlineStr"/>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:22+10:00</t>
+          <t>2025-09-19T10:11:59+10:00</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>66.70999999999999</v>
+        <v>807</v>
       </c>
       <c r="G146" t="inlineStr"/>
     </row>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:22+10:00</t>
+          <t>2025-09-19T10:12:00+10:00</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>144.95</v>
+        <v>569.1799999999999</v>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:23+10:00</t>
+          <t>2025-09-19T10:12:01+10:00</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>917.14</v>
+        <v>667.3099999999999</v>
       </c>
       <c r="G148" t="inlineStr"/>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:25+10:00</t>
+          <t>2025-09-19T10:12:01+10:00</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1434.06</v>
+        <v>769.75</v>
       </c>
       <c r="G149" t="inlineStr"/>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:25+10:00</t>
+          <t>2025-09-19T10:12:02+10:00</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>45.86</v>
+        <v>818.59</v>
       </c>
       <c r="G150" t="inlineStr"/>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:25+10:00</t>
+          <t>2025-09-19T10:12:03+10:00</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>159.2</v>
+        <v>755.03</v>
       </c>
       <c r="G151" t="inlineStr"/>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:26+10:00</t>
+          <t>2025-09-19T10:12:04+10:00</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>783.08</v>
+        <v>706.49</v>
       </c>
       <c r="G152" t="inlineStr"/>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:26+10:00</t>
+          <t>2025-09-19T10:12:05+10:00</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>50.8</v>
+        <v>646.79</v>
       </c>
       <c r="G153" t="inlineStr"/>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:26+10:00</t>
+          <t>2025-09-19T10:12:06+10:00</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>46.64</v>
+        <v>821.73</v>
       </c>
       <c r="G154" t="inlineStr"/>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:27+10:00</t>
+          <t>2025-09-19T10:12:06+10:00</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>666.4400000000001</v>
+        <v>602.9</v>
       </c>
       <c r="G155" t="inlineStr"/>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:28+10:00</t>
+          <t>2025-09-19T10:12:07+10:00</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>813.14</v>
+        <v>560.54</v>
       </c>
       <c r="G156" t="inlineStr"/>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:29+10:00</t>
+          <t>2025-09-19T10:12:08+10:00</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>600.22</v>
+        <v>533.03</v>
       </c>
       <c r="G157" t="inlineStr"/>
     </row>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:30+10:00</t>
+          <t>2025-09-19T10:12:08+10:00</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>835.1799999999999</v>
+        <v>706.22</v>
       </c>
       <c r="G158" t="inlineStr"/>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:30+10:00</t>
+          <t>2025-09-19T10:12:09+10:00</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>818.42</v>
+        <v>899.92</v>
       </c>
       <c r="G159" t="inlineStr"/>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:32+10:00</t>
+          <t>2025-09-19T10:12:10+10:00</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1033.01</v>
+        <v>740.65</v>
       </c>
       <c r="G160" t="inlineStr"/>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:32+10:00</t>
+          <t>2025-09-19T10:12:11+10:00</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>612.13</v>
+        <v>575.9400000000001</v>
       </c>
       <c r="G161" t="inlineStr"/>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:33+10:00</t>
+          <t>2025-09-19T10:12:12+10:00</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>820.86</v>
+        <v>975.28</v>
       </c>
       <c r="G162" t="inlineStr"/>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:33+10:00</t>
+          <t>2025-09-19T10:12:13+10:00</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>44.77</v>
+        <v>859.91</v>
       </c>
       <c r="G163" t="inlineStr"/>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:34+10:00</t>
+          <t>2025-09-19T10:12:14+10:00</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>775.39</v>
+        <v>951.0599999999999</v>
       </c>
       <c r="G164" t="inlineStr"/>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:35+10:00</t>
+          <t>2025-09-19T10:12:15+10:00</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1032.73</v>
+        <v>872.73</v>
       </c>
       <c r="G165" t="inlineStr"/>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:36+10:00</t>
+          <t>2025-09-19T10:12:16+10:00</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>811.5</v>
+        <v>876.3099999999999</v>
       </c>
       <c r="G166" t="inlineStr"/>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:36+10:00</t>
+          <t>2025-09-19T10:12:17+10:00</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>43.8</v>
+        <v>1052.33</v>
       </c>
       <c r="G167" t="inlineStr"/>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:37+10:00</t>
+          <t>2025-09-19T10:12:18+10:00</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>774.2</v>
+        <v>821.29</v>
       </c>
       <c r="G168" t="inlineStr"/>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:37+10:00</t>
+          <t>2025-09-19T10:12:19+10:00</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>43.65</v>
+        <v>776.42</v>
       </c>
       <c r="G169" t="inlineStr"/>
     </row>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:38+10:00</t>
+          <t>2025-09-19T10:12:20+10:00</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>883.7</v>
+        <v>905.95</v>
       </c>
       <c r="G170" t="inlineStr"/>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:40+10:00</t>
+          <t>2025-09-19T10:12:21+10:00</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1019.5</v>
+        <v>637.01</v>
       </c>
       <c r="G171" t="inlineStr"/>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:40+10:00</t>
+          <t>2025-09-19T10:12:21+10:00</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>50.34</v>
+        <v>639.2</v>
       </c>
       <c r="G172" t="inlineStr"/>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:40+10:00</t>
+          <t>2025-09-19T10:12:22+10:00</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>572.45</v>
+        <v>471.18</v>
       </c>
       <c r="G173" t="inlineStr"/>
     </row>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:41+10:00</t>
+          <t>2025-09-19T10:12:23+10:00</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>814.29</v>
+        <v>822.16</v>
       </c>
       <c r="G174" t="inlineStr"/>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:42+10:00</t>
+          <t>2025-09-19T10:12:24+10:00</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>510.56</v>
+        <v>466.45</v>
       </c>
       <c r="G175" t="inlineStr"/>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:42+10:00</t>
+          <t>2025-09-19T10:12:25+10:00</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>105.02</v>
+        <v>912.3099999999999</v>
       </c>
       <c r="G176" t="inlineStr"/>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:42+10:00</t>
+          <t>2025-09-19T10:12:25+10:00</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>106.72</v>
+        <v>716.36</v>
       </c>
       <c r="G177" t="inlineStr"/>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:42+10:00</t>
+          <t>2025-09-19T10:12:27+10:00</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>58.7</v>
+        <v>1281.08</v>
       </c>
       <c r="G178" t="inlineStr"/>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:43+10:00</t>
+          <t>2025-09-19T10:12:27+10:00</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>530.27</v>
+        <v>452.9</v>
       </c>
       <c r="G179" t="inlineStr"/>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:44+10:00</t>
+          <t>2025-09-19T10:12:28+10:00</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1040.07</v>
+        <v>655.65</v>
       </c>
       <c r="G180" t="inlineStr"/>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:45+10:00</t>
+          <t>2025-09-19T10:12:29+10:00</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>552.4400000000001</v>
+        <v>542.71</v>
       </c>
       <c r="G181" t="inlineStr"/>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:46+10:00</t>
+          <t>2025-09-19T10:12:29+10:00</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>584.05</v>
+        <v>644.6</v>
       </c>
       <c r="G182" t="inlineStr"/>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:46+10:00</t>
+          <t>2025-09-19T10:12:30+10:00</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>619.6900000000001</v>
+        <v>735.9</v>
       </c>
       <c r="G183" t="inlineStr"/>
     </row>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:47+10:00</t>
+          <t>2025-09-19T10:12:31+10:00</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>609.04</v>
+        <v>571.02</v>
       </c>
       <c r="G184" t="inlineStr"/>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:48+10:00</t>
+          <t>2025-09-19T10:12:32+10:00</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>926.09</v>
+        <v>684.1799999999999</v>
       </c>
       <c r="G185" t="inlineStr"/>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:48+10:00</t>
+          <t>2025-09-19T10:12:32+10:00</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>104.85</v>
+        <v>28.77</v>
       </c>
       <c r="G186" t="inlineStr"/>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:49+10:00</t>
+          <t>2025-09-19T10:12:33+10:00</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>815.86</v>
+        <v>845.78</v>
       </c>
       <c r="G187" t="inlineStr"/>
     </row>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:50+10:00</t>
+          <t>2025-09-19T10:12:34+10:00</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>500.75</v>
+        <v>1017</v>
       </c>
       <c r="G188" t="inlineStr"/>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:51+10:00</t>
+          <t>2025-09-19T10:12:35+10:00</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>831.73</v>
+        <v>739.79</v>
       </c>
       <c r="G189" t="inlineStr"/>
     </row>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:52+10:00</t>
+          <t>2025-09-19T10:12:36+10:00</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1127.41</v>
+        <v>686.25</v>
       </c>
       <c r="G190" t="inlineStr"/>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:53+10:00</t>
+          <t>2025-09-19T10:12:36+10:00</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>818.92</v>
+        <v>679.91</v>
       </c>
       <c r="G191" t="inlineStr"/>
     </row>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:53+10:00</t>
+          <t>2025-09-19T10:12:37+10:00</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>40.33</v>
+        <v>843.39</v>
       </c>
       <c r="G192" t="inlineStr"/>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:53+10:00</t>
+          <t>2025-09-19T10:12:37+10:00</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>63.08</v>
+        <v>19.53</v>
       </c>
       <c r="G193" t="inlineStr"/>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:53+10:00</t>
+          <t>2025-09-19T10:12:38+10:00</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>210.16</v>
+        <v>718.29</v>
       </c>
       <c r="G194" t="inlineStr"/>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:55+10:00</t>
+          <t>2025-09-19T10:12:39+10:00</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1328.79</v>
+        <v>766.86</v>
       </c>
       <c r="G195" t="inlineStr"/>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:56+10:00</t>
+          <t>2025-09-19T10:12:40+10:00</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>819.04</v>
+        <v>736.98</v>
       </c>
       <c r="G196" t="inlineStr"/>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:56+10:00</t>
+          <t>2025-09-19T10:12:41+10:00</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>39.66</v>
+        <v>872</v>
       </c>
       <c r="G197" t="inlineStr"/>
     </row>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:57+10:00</t>
+          <t>2025-09-19T10:12:41+10:00</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>585.4</v>
+        <v>409.05</v>
       </c>
       <c r="G198" t="inlineStr"/>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:57+10:00</t>
+          <t>2025-09-19T10:12:42+10:00</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>514.53</v>
+        <v>460.43</v>
       </c>
       <c r="G199" t="inlineStr"/>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:58+10:00</t>
+          <t>2025-09-19T10:12:42+10:00</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>614.02</v>
+        <v>404.93</v>
       </c>
       <c r="G200" t="inlineStr"/>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:59+10:00</t>
+          <t>2025-09-19T10:12:43+10:00</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>562.6900000000001</v>
+        <v>505.91</v>
       </c>
       <c r="G201" t="inlineStr"/>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-09-18T13:50:59+10:00</t>
+          <t>2025-09-19T10:12:44+10:00</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>561.26</v>
+        <v>511.03</v>
       </c>
       <c r="G202" t="inlineStr"/>
     </row>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:00+10:00</t>
+          <t>2025-09-19T10:12:44+10:00</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>517.21</v>
+        <v>674.03</v>
       </c>
       <c r="G203" t="inlineStr"/>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:01+10:00</t>
+          <t>2025-09-19T10:12:45+10:00</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>507.07</v>
+        <v>360.06</v>
       </c>
       <c r="G204" t="inlineStr"/>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:01+10:00</t>
+          <t>2025-09-19T10:12:45+10:00</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>720.2</v>
+        <v>410.21</v>
       </c>
       <c r="G205" t="inlineStr"/>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:02+10:00</t>
+          <t>2025-09-19T10:12:46+10:00</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>519.33</v>
+        <v>413.77</v>
       </c>
       <c r="G206" t="inlineStr"/>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:03+10:00</t>
+          <t>2025-09-19T10:12:47+10:00</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>604.5599999999999</v>
+        <v>485.53</v>
       </c>
       <c r="G207" t="inlineStr"/>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:03+10:00</t>
+          <t>2025-09-19T10:12:47+10:00</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>408.63</v>
+        <v>358.14</v>
       </c>
       <c r="G208" t="inlineStr"/>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:04+10:00</t>
+          <t>2025-09-19T10:12:48+10:00</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>617.76</v>
+        <v>509.66</v>
       </c>
       <c r="G209" t="inlineStr"/>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:05+10:00</t>
+          <t>2025-09-19T10:12:48+10:00</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>690.55</v>
+        <v>472.96</v>
       </c>
       <c r="G210" t="inlineStr"/>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:05+10:00</t>
+          <t>2025-09-19T10:12:49+10:00</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>642.8</v>
+        <v>732.84</v>
       </c>
       <c r="G211" t="inlineStr"/>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:06+10:00</t>
+          <t>2025-09-19T10:12:50+10:00</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>716.0700000000001</v>
+        <v>506.16</v>
       </c>
       <c r="G212" t="inlineStr"/>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:07+10:00</t>
+          <t>2025-09-19T10:12:50+10:00</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>412.13</v>
+        <v>406.58</v>
       </c>
       <c r="G213" t="inlineStr"/>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:08+10:00</t>
+          <t>2025-09-19T10:12:51+10:00</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>818.17</v>
+        <v>492.06</v>
       </c>
       <c r="G214" t="inlineStr"/>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:08+10:00</t>
+          <t>2025-09-19T10:12:51+10:00</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>617</v>
+        <v>444.23</v>
       </c>
       <c r="G215" t="inlineStr"/>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:09+10:00</t>
+          <t>2025-09-19T10:12:52+10:00</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>372.24</v>
+        <v>503.2</v>
       </c>
       <c r="G216" t="inlineStr"/>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:09+10:00</t>
+          <t>2025-09-19T10:12:52+10:00</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>481.01</v>
+        <v>400.57</v>
       </c>
       <c r="G217" t="inlineStr"/>
     </row>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:10+10:00</t>
+          <t>2025-09-19T10:12:53+10:00</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>477.77</v>
+        <v>478.79</v>
       </c>
       <c r="G218" t="inlineStr"/>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:11+10:00</t>
+          <t>2025-09-19T10:12:53+10:00</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>514.73</v>
+        <v>407.54</v>
       </c>
       <c r="G219" t="inlineStr"/>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:11+10:00</t>
+          <t>2025-09-19T10:12:54+10:00</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>410.46</v>
+        <v>472.77</v>
       </c>
       <c r="G220" t="inlineStr"/>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:12+10:00</t>
+          <t>2025-09-19T10:12:55+10:00</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>615.53</v>
+        <v>628.02</v>
       </c>
       <c r="G221" t="inlineStr"/>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:13+10:00</t>
+          <t>2025-09-19T10:12:55+10:00</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>614.02</v>
+        <v>506.97</v>
       </c>
       <c r="G222" t="inlineStr"/>
     </row>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:13+10:00</t>
+          <t>2025-09-19T10:12:56+10:00</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>481.74</v>
+        <v>425.51</v>
       </c>
       <c r="G223" t="inlineStr"/>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:14+10:00</t>
+          <t>2025-09-19T10:12:56+10:00</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>446.92</v>
+        <v>376.75</v>
       </c>
       <c r="G224" t="inlineStr"/>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:15+10:00</t>
+          <t>2025-09-19T10:12:57+10:00</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>815.05</v>
+        <v>461.63</v>
       </c>
       <c r="G225" t="inlineStr"/>
     </row>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:15+10:00</t>
+          <t>2025-09-19T10:12:57+10:00</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>617.05</v>
+        <v>405.66</v>
       </c>
       <c r="G226" t="inlineStr"/>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:16+10:00</t>
+          <t>2025-09-19T10:12:58+10:00</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>511.11</v>
+        <v>512.0700000000001</v>
       </c>
       <c r="G227" t="inlineStr"/>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:17+10:00</t>
+          <t>2025-09-19T10:12:59+10:00</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>420.99</v>
+        <v>734.24</v>
       </c>
       <c r="G228" t="inlineStr"/>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:17+10:00</t>
+          <t>2025-09-19T10:12:59+10:00</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>540.08</v>
+        <v>475.89</v>
       </c>
       <c r="G229" t="inlineStr"/>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:18+10:00</t>
+          <t>2025-09-19T10:13:00+10:00</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>445.12</v>
+        <v>14.59</v>
       </c>
       <c r="G230" t="inlineStr"/>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:18+10:00</t>
+          <t>2025-09-19T10:13:00+10:00</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>472.36</v>
+        <v>373.05</v>
       </c>
       <c r="G231" t="inlineStr"/>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:19+10:00</t>
+          <t>2025-09-19T10:13:01+10:00</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>482.19</v>
+        <v>430.49</v>
       </c>
       <c r="G232" t="inlineStr"/>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:19+10:00</t>
+          <t>2025-09-19T10:13:01+10:00</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>39.67</v>
+        <v>452.98</v>
       </c>
       <c r="G233" t="inlineStr"/>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:20+10:00</t>
+          <t>2025-09-19T10:13:02+10:00</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>576.79</v>
+        <v>671.12</v>
       </c>
       <c r="G234" t="inlineStr"/>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:20+10:00</t>
+          <t>2025-09-19T10:13:02+10:00</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>409.86</v>
+        <v>322.04</v>
       </c>
       <c r="G235" t="inlineStr"/>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:21+10:00</t>
+          <t>2025-09-19T10:13:03+10:00</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>512.5700000000001</v>
+        <v>473.46</v>
       </c>
       <c r="G236" t="inlineStr"/>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:21+10:00</t>
+          <t>2025-09-19T10:13:04+10:00</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>511.08</v>
+        <v>564.29</v>
       </c>
       <c r="G237" t="inlineStr"/>
     </row>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:22+10:00</t>
+          <t>2025-09-19T10:13:04+10:00</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>722.29</v>
+        <v>413.18</v>
       </c>
       <c r="G238" t="inlineStr"/>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:23+10:00</t>
+          <t>2025-09-19T10:13:05+10:00</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>405.79</v>
+        <v>340.53</v>
       </c>
       <c r="G239" t="inlineStr"/>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:23+10:00</t>
+          <t>2025-09-19T10:13:05+10:00</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>517.53</v>
+        <v>587.6799999999999</v>
       </c>
       <c r="G240" t="inlineStr"/>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:24+10:00</t>
+          <t>2025-09-19T10:13:06+10:00</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>509.44</v>
+        <v>592.26</v>
       </c>
       <c r="G241" t="inlineStr"/>
     </row>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:25+10:00</t>
+          <t>2025-09-19T10:13:07+10:00</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>615.52</v>
+        <v>532.73</v>
       </c>
       <c r="G242" t="inlineStr"/>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:25+10:00</t>
+          <t>2025-09-19T10:13:07+10:00</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>618.0599999999999</v>
+        <v>744.4</v>
       </c>
       <c r="G243" t="inlineStr"/>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:26+10:00</t>
+          <t>2025-09-19T10:13:09+10:00</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>49.33</v>
+        <v>1111</v>
       </c>
       <c r="G244" t="inlineStr"/>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:26+10:00</t>
+          <t>2025-09-19T10:13:09+10:00</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>769.16</v>
+        <v>637.74</v>
       </c>
       <c r="G245" t="inlineStr"/>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:27+10:00</t>
+          <t>2025-09-19T10:13:10+10:00</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>511.79</v>
+        <v>476.23</v>
       </c>
       <c r="G246" t="inlineStr"/>
     </row>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:28+10:00</t>
+          <t>2025-09-19T10:13:10+10:00</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>516.96</v>
+        <v>431.87</v>
       </c>
       <c r="G247" t="inlineStr"/>
     </row>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:28+10:00</t>
+          <t>2025-09-19T10:13:11+10:00</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>612.26</v>
+        <v>428.08</v>
       </c>
       <c r="G248" t="inlineStr"/>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:29+10:00</t>
+          <t>2025-09-19T10:13:12+10:00</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>72.75</v>
+        <v>576.08</v>
       </c>
       <c r="G249" t="inlineStr"/>
     </row>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:29+10:00</t>
+          <t>2025-09-19T10:13:12+10:00</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>543.65</v>
+        <v>490.56</v>
       </c>
       <c r="G250" t="inlineStr"/>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:30+10:00</t>
+          <t>2025-09-19T10:13:13+10:00</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>925.54</v>
+        <v>463.89</v>
       </c>
       <c r="G251" t="inlineStr"/>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:31+10:00</t>
+          <t>2025-09-19T10:13:13+10:00</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>518.0599999999999</v>
+        <v>425.78</v>
       </c>
       <c r="G252" t="inlineStr"/>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:32+10:00</t>
+          <t>2025-09-19T10:13:14+10:00</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>609.08</v>
+        <v>632.0700000000001</v>
       </c>
       <c r="G253" t="inlineStr"/>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:32+10:00</t>
+          <t>2025-09-19T10:13:15+10:00</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>44.71</v>
+        <v>556.4</v>
       </c>
       <c r="G254" t="inlineStr"/>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:33+10:00</t>
+          <t>2025-09-19T10:13:15+10:00</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>782.8</v>
+        <v>521.08</v>
       </c>
       <c r="G255" t="inlineStr"/>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:33+10:00</t>
+          <t>2025-09-19T10:13:16+10:00</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>41.94</v>
+        <v>432.33</v>
       </c>
       <c r="G256" t="inlineStr"/>
     </row>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:33+10:00</t>
+          <t>2025-09-19T10:13:17+10:00</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>262.4</v>
+        <v>546.85</v>
       </c>
       <c r="G257" t="inlineStr"/>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:34+10:00</t>
+          <t>2025-09-19T10:13:17+10:00</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>713.01</v>
+        <v>613.91</v>
       </c>
       <c r="G258" t="inlineStr"/>
     </row>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:35+10:00</t>
+          <t>2025-09-19T10:13:18+10:00</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>721.42</v>
+        <v>725.55</v>
       </c>
       <c r="G259" t="inlineStr"/>
     </row>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:35+10:00</t>
+          <t>2025-09-19T10:13:19+10:00</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>509.22</v>
+        <v>428.05</v>
       </c>
       <c r="G260" t="inlineStr"/>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:36+10:00</t>
+          <t>2025-09-19T10:13:19+10:00</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>575.84</v>
+        <v>571.6799999999999</v>
       </c>
       <c r="G261" t="inlineStr"/>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:37+10:00</t>
+          <t>2025-09-19T10:13:20+10:00</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>767.49</v>
+        <v>496.49</v>
       </c>
       <c r="G262" t="inlineStr"/>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:38+10:00</t>
+          <t>2025-09-19T10:13:21+10:00</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>808.78</v>
+        <v>634.76</v>
       </c>
       <c r="G263" t="inlineStr"/>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:38+10:00</t>
+          <t>2025-09-19T10:13:21+10:00</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>518.91</v>
+        <v>750.13</v>
       </c>
       <c r="G264" t="inlineStr"/>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:39+10:00</t>
+          <t>2025-09-19T10:13:22+10:00</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>597.9400000000001</v>
+        <v>435.24</v>
       </c>
       <c r="G265" t="inlineStr"/>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:40+10:00</t>
+          <t>2025-09-19T10:13:23+10:00</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>732.96</v>
+        <v>451.83</v>
       </c>
       <c r="G266" t="inlineStr"/>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:41+10:00</t>
+          <t>2025-09-19T10:13:23+10:00</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>731.52</v>
+        <v>491.54</v>
       </c>
       <c r="G267" t="inlineStr"/>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:41+10:00</t>
+          <t>2025-09-19T10:13:23+10:00</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>40.54</v>
+        <v>13.82</v>
       </c>
       <c r="G268" t="inlineStr"/>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:41+10:00</t>
+          <t>2025-09-19T10:13:23+10:00</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>146.45</v>
+        <v>15.36</v>
       </c>
       <c r="G269" t="inlineStr"/>
     </row>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:42+10:00</t>
+          <t>2025-09-19T10:13:24+10:00</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>516.02</v>
+        <v>503.86</v>
       </c>
       <c r="G270" t="inlineStr"/>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:42+10:00</t>
+          <t>2025-09-19T10:13:25+10:00</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>44.74</v>
+        <v>481.57</v>
       </c>
       <c r="G271" t="inlineStr"/>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:42+10:00</t>
+          <t>2025-09-19T10:13:25+10:00</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>59.04</v>
+        <v>780.51</v>
       </c>
       <c r="G272" t="inlineStr"/>
     </row>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:43+10:00</t>
+          <t>2025-09-19T10:13:26+10:00</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>471.32</v>
+        <v>742.48</v>
       </c>
       <c r="G273" t="inlineStr"/>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:43+10:00</t>
+          <t>2025-09-19T10:13:27+10:00</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>560.63</v>
+        <v>632.15</v>
       </c>
       <c r="G274" t="inlineStr"/>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:44+10:00</t>
+          <t>2025-09-19T10:13:28+10:00</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>913.58</v>
+        <v>473.78</v>
       </c>
       <c r="G275" t="inlineStr"/>
     </row>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:45+10:00</t>
+          <t>2025-09-19T10:13:28+10:00</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>445.41</v>
+        <v>665.92</v>
       </c>
       <c r="G276" t="inlineStr"/>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:46+10:00</t>
+          <t>2025-09-19T10:13:29+10:00</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>579.9</v>
+        <v>648.52</v>
       </c>
       <c r="G277" t="inlineStr"/>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:46+10:00</t>
+          <t>2025-09-19T10:13:30+10:00</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>511.16</v>
+        <v>491.02</v>
       </c>
       <c r="G278" t="inlineStr"/>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:46+10:00</t>
+          <t>2025-09-19T10:13:30+10:00</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>38.61</v>
+        <v>659.9299999999999</v>
       </c>
       <c r="G279" t="inlineStr"/>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:47+10:00</t>
+          <t>2025-09-19T10:13:31+10:00</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>680.08</v>
+        <v>524.47</v>
       </c>
       <c r="G280" t="inlineStr"/>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:48+10:00</t>
+          <t>2025-09-19T10:13:32+10:00</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>619.47</v>
+        <v>491.93</v>
       </c>
       <c r="G281" t="inlineStr"/>
     </row>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:48+10:00</t>
+          <t>2025-09-19T10:13:32+10:00</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>45.26</v>
+        <v>29.33</v>
       </c>
       <c r="G282" t="inlineStr"/>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:48+10:00</t>
+          <t>2025-09-19T10:13:35+10:00</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>48.69</v>
+        <v>2627.34</v>
       </c>
       <c r="G283" t="inlineStr"/>
     </row>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:49+10:00</t>
+          <t>2025-09-19T10:13:36+10:00</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>723.39</v>
+        <v>1217.51</v>
       </c>
       <c r="G284" t="inlineStr"/>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:49+10:00</t>
+          <t>2025-09-19T10:13:36+10:00</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>42.23</v>
+        <v>424.85</v>
       </c>
       <c r="G285" t="inlineStr"/>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:50+10:00</t>
+          <t>2025-09-19T10:13:37+10:00</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>541</v>
+        <v>493.04</v>
       </c>
       <c r="G286" t="inlineStr"/>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:50+10:00</t>
+          <t>2025-09-19T10:13:38+10:00</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>452.85</v>
+        <v>416.61</v>
       </c>
       <c r="G287" t="inlineStr"/>
     </row>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:51+10:00</t>
+          <t>2025-09-19T10:13:38+10:00</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>609.88</v>
+        <v>488.78</v>
       </c>
       <c r="G288" t="inlineStr"/>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:52+10:00</t>
+          <t>2025-09-19T10:13:39+10:00</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>720.3200000000001</v>
+        <v>712.8099999999999</v>
       </c>
       <c r="G289" t="inlineStr"/>
     </row>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:53+10:00</t>
+          <t>2025-09-19T10:13:40+10:00</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>717.45</v>
+        <v>547.85</v>
       </c>
       <c r="G290" t="inlineStr"/>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:53+10:00</t>
+          <t>2025-09-19T10:13:40+10:00</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>99.94</v>
+        <v>500.87</v>
       </c>
       <c r="G291" t="inlineStr"/>
     </row>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:53+10:00</t>
+          <t>2025-09-19T10:13:41+10:00</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>201.73</v>
+        <v>578.39</v>
       </c>
       <c r="G292" t="inlineStr"/>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:54+10:00</t>
+          <t>2025-09-19T10:13:41+10:00</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>620.83</v>
+        <v>454.04</v>
       </c>
       <c r="G293" t="inlineStr"/>
     </row>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:54+10:00</t>
+          <t>2025-09-19T10:13:42+10:00</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>43.82</v>
+        <v>12.39</v>
       </c>
       <c r="G294" t="inlineStr"/>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:54+10:00</t>
+          <t>2025-09-19T10:13:42+10:00</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>58.18</v>
+        <v>476.63</v>
       </c>
       <c r="G295" t="inlineStr"/>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:55+10:00</t>
+          <t>2025-09-19T10:13:43+10:00</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>873.78</v>
+        <v>472.95</v>
       </c>
       <c r="G296" t="inlineStr"/>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:56+10:00</t>
+          <t>2025-09-19T10:13:43+10:00</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>655.15</v>
+        <v>496.58</v>
       </c>
       <c r="G297" t="inlineStr"/>
     </row>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:57+10:00</t>
+          <t>2025-09-19T10:13:44+10:00</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>517.61</v>
+        <v>501.99</v>
       </c>
       <c r="G298" t="inlineStr"/>
     </row>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:57+10:00</t>
+          <t>2025-09-19T10:13:44+10:00</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>717.5</v>
+        <v>14.98</v>
       </c>
       <c r="G299" t="inlineStr"/>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:58+10:00</t>
+          <t>2025-09-19T10:13:44+10:00</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>512.29</v>
+        <v>19.7</v>
       </c>
       <c r="G300" t="inlineStr"/>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:58+10:00</t>
+          <t>2025-09-19T10:13:45+10:00</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>34.4</v>
+        <v>605.6900000000001</v>
       </c>
       <c r="G301" t="inlineStr"/>
     </row>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:58+10:00</t>
+          <t>2025-09-19T10:13:45+10:00</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>32.22</v>
+        <v>514.64</v>
       </c>
       <c r="G302" t="inlineStr"/>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:58+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>141.54</v>
+        <v>13.93</v>
       </c>
       <c r="G303" t="inlineStr"/>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:59+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>81.45999999999999</v>
+        <v>17.59</v>
       </c>
       <c r="G304" t="inlineStr"/>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:59+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>125.1</v>
+        <v>15.27</v>
       </c>
       <c r="G305" t="inlineStr"/>
     </row>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2025-09-18T13:51:59+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>103.9</v>
+        <v>15.83</v>
       </c>
       <c r="G306" t="inlineStr"/>
     </row>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:00+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>309.12</v>
+        <v>15.41</v>
       </c>
       <c r="G307" t="inlineStr"/>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:00+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>45.11</v>
+        <v>19.91</v>
       </c>
       <c r="G308" t="inlineStr"/>
     </row>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:00+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>160.23</v>
+        <v>13.41</v>
       </c>
       <c r="G309" t="inlineStr"/>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:00+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>110.95</v>
+        <v>14.83</v>
       </c>
       <c r="G310" t="inlineStr"/>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:00+10:00</t>
+          <t>2025-09-19T10:13:46+10:00</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>95.63</v>
+        <v>14.99</v>
       </c>
       <c r="G311" t="inlineStr"/>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:01+10:00</t>
+          <t>2025-09-19T10:13:47+10:00</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>206.12</v>
+        <v>24.54</v>
       </c>
       <c r="G312" t="inlineStr"/>
     </row>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:01+10:00</t>
+          <t>2025-09-19T10:13:47+10:00</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>49.42</v>
+        <v>12.59</v>
       </c>
       <c r="G313" t="inlineStr"/>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:01+10:00</t>
+          <t>2025-09-19T10:13:47+10:00</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>159.31</v>
+        <v>15.44</v>
       </c>
       <c r="G314" t="inlineStr"/>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2025-09-18T13:52:02+10:00</t>
+          <t>2025-09-19T10:13:47+10:00</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>613</v>
+        <v>499.66</v>
       </c>
       <c r="G315" t="inlineStr"/>
     </row>
